--- a/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/2_4-8_152_0.006_300 predictions_manual_offline 6.xlsx
+++ b/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/2_4-8_152_0.006_300 predictions_manual_offline 6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0755FD9F-26E7-4FA0-B71C-1B562197CC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBDA78E-3727-4E6D-83DB-069377B65255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8139,8 +8139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="AP40" sqref="AP40"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9203,7 +9203,7 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7">
-        <f t="shared" ref="X31:X42" si="4">ABS((J16-B16)/J16)</f>
+        <f>ABS((J16-B16)/J16)</f>
         <v>0.22934114530358493</v>
       </c>
       <c r="Y31" s="7">
@@ -9231,7 +9231,7 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="X31:X42" si="4">ABS((J17-B17)/J17)</f>
         <v>0.14276016644351952</v>
       </c>
       <c r="Y32" s="7">
@@ -9528,30 +9528,30 @@
         <v>5</v>
       </c>
       <c r="S43" s="7">
-        <f>( SUM(S31:S41)/12)*100</f>
-        <v>3.3177223819980894</v>
+        <f>( SUM(S31:S42)/12)*100</f>
+        <v>3.4388828124766522</v>
       </c>
       <c r="T43" s="7">
-        <f>( SUM(T31:T41)/12)*100</f>
-        <v>5.1790873932570678</v>
+        <f>( SUM(T31:T42)/12)*100</f>
+        <v>6.1106342749556974</v>
       </c>
       <c r="U43" s="7">
-        <f>( SUM(U31:U41)/12)*100</f>
-        <v>10.210608578782509</v>
+        <f>( SUM(U31:U42)/12)*100</f>
+        <v>10.236201285882668</v>
       </c>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7">
-        <f t="shared" ref="X43:Z43" si="6">( SUM(X31:X41)/12)*100</f>
-        <v>6.7155414825421964</v>
+        <f>( SUM(X31:X42)/12)*100</f>
+        <v>7.1493968500635106</v>
       </c>
       <c r="Y43" s="7">
-        <f t="shared" si="6"/>
-        <v>9.6806810250209168</v>
+        <f>( SUM(Y31:Y42)/12)*100</f>
+        <v>10.105175517266634</v>
       </c>
       <c r="Z43" s="7">
-        <f t="shared" si="6"/>
-        <v>21.489303749901836</v>
+        <f>( SUM(Z31:Z42)/12)*100</f>
+        <v>22.307727451893403</v>
       </c>
     </row>
   </sheetData>

--- a/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/2_4-8_152_0.006_300 predictions_manual_offline 6.xlsx
+++ b/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/2_4-8_152_0.006_300 predictions_manual_offline 6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBDA78E-3727-4E6D-83DB-069377B65255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43BCC17-77C5-4DB9-AF40-723C2F9769B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -9231,7 +9232,7 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7">
-        <f t="shared" ref="X31:X42" si="4">ABS((J17-B17)/J17)</f>
+        <f t="shared" ref="X32:X42" si="4">ABS((J17-B17)/J17)</f>
         <v>0.14276016644351952</v>
       </c>
       <c r="Y32" s="7">
